--- a/dataset/raw_bmkg/2020/September-2020.xlsx
+++ b/dataset/raw_bmkg/2020/September-2020.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifi\OneDrive\Documents\skripsi\code\dataset\raw\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifi\OneDrive\Documents\skripsi\code\dataset\raw_bmkg\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752AD94-97BB-4D17-A0FB-33D8EB0D71AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F546017-1E6A-4284-975F-4BC3E637925C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Harian - Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>ID WMO</t>
   </si>
@@ -168,6 +156,9 @@
   </si>
   <si>
     <t>20-09-2020</t>
+  </si>
+  <si>
+    <t>NE</t>
   </si>
   <si>
     <t>21-09-2020</t>
@@ -243,12 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,21 +242,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,52 +273,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -356,50 +300,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="857250" cy="857250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:G23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,17 +640,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
@@ -797,10 +686,10 @@
         <v>31.8</v>
       </c>
       <c r="D10" s="2">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E10" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>0.6</v>
@@ -832,7 +721,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="D11" s="2">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E11" s="2">
         <v>88</v>
@@ -867,10 +756,10 @@
         <v>30.7</v>
       </c>
       <c r="D12" s="2">
-        <v>26.2</v>
+        <v>26.8</v>
       </c>
       <c r="E12" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F12" s="2">
         <v>0.4</v>
@@ -902,10 +791,10 @@
         <v>31.8</v>
       </c>
       <c r="D13" s="2">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F13" s="2">
         <v>4.8</v>
@@ -937,10 +826,10 @@
         <v>27.7</v>
       </c>
       <c r="D14" s="2">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="E14" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2">
         <v>14.9</v>
@@ -972,10 +861,10 @@
         <v>30.3</v>
       </c>
       <c r="D15" s="2">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E15" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2">
         <v>37.5</v>
@@ -1007,10 +896,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="D16" s="2">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E16" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2">
         <v>60.1</v>
@@ -1042,10 +931,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="2">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="E17" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -1077,10 +966,10 @@
         <v>32.6</v>
       </c>
       <c r="D18" s="2">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="E18" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1112,10 +1001,10 @@
         <v>30.6</v>
       </c>
       <c r="D19" s="2">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E19" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="2">
         <v>0.6</v>
@@ -1147,10 +1036,10 @@
         <v>31.7</v>
       </c>
       <c r="D20" s="2">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="E20" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
@@ -1180,10 +1069,10 @@
         <v>30.5</v>
       </c>
       <c r="D21" s="2">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="E21" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21" s="2">
         <v>1.9</v>
@@ -1215,10 +1104,10 @@
         <v>28.2</v>
       </c>
       <c r="D22" s="2">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="E22" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2">
         <v>30.1</v>
@@ -1248,10 +1137,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="E23" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2">
         <v>29.3</v>
@@ -1266,154 +1155,184 @@
         <v>190</v>
       </c>
       <c r="J23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6">
-        <v>24.7</v>
+      <c r="B24" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>26.8</v>
       </c>
       <c r="E24" s="2">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2">
-        <v>27.2</v>
+        <v>13.9</v>
       </c>
       <c r="G24" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7</v>
+      </c>
       <c r="I24" s="2">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30.6</v>
+      </c>
       <c r="D25" s="2">
-        <v>25</v>
+        <v>26.7</v>
       </c>
       <c r="E25" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2">
-        <v>25.1</v>
+        <v>10.3</v>
       </c>
       <c r="G25" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>24</v>
+      <c r="K25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>31.6</v>
+      </c>
       <c r="D26" s="2">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
       <c r="E26" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
-        <v>23</v>
+        <v>8888</v>
       </c>
       <c r="G26" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
       <c r="I26" s="2">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>24</v>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>32.200000000000003</v>
+      </c>
       <c r="D27" s="2">
-        <v>25.5</v>
+        <v>28.4</v>
       </c>
       <c r="E27" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F27" s="2">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="G27" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6</v>
+      </c>
       <c r="I27" s="2">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="J27" s="2">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32.799999999999997</v>
+      </c>
       <c r="D28" s="2">
-        <v>25.7</v>
+        <v>28.2</v>
       </c>
       <c r="E28" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>8</v>
+      </c>
       <c r="I28" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1421,237 +1340,273 @@
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32.799999999999997</v>
+      </c>
       <c r="D29" s="2">
-        <v>26</v>
+        <v>28.4</v>
       </c>
       <c r="E29" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F29" s="2">
-        <v>16.7</v>
+        <v>0.4</v>
       </c>
       <c r="G29" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="H29" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6</v>
+      </c>
       <c r="I29" s="2">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>30.5</v>
+      </c>
       <c r="D30" s="2">
-        <v>26.2</v>
+        <v>25.3</v>
       </c>
       <c r="E30" s="2">
-        <v>89</v>
-      </c>
-      <c r="F30" s="2">
-        <v>14.7</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>2.6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
       <c r="I30" s="2">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="J30" s="2">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30.9</v>
+      </c>
       <c r="D31" s="2">
-        <v>26.5</v>
+        <v>27.3</v>
       </c>
       <c r="E31" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" s="2">
-        <v>12.6</v>
+        <v>38.4</v>
       </c>
       <c r="G31" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
       <c r="I31" s="2">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B32" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>32.200000000000003</v>
+      </c>
       <c r="D32" s="2">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="E32" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F32" s="2">
-        <v>10.5</v>
+        <v>1.6</v>
       </c>
       <c r="G32" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>4.3</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
       <c r="I32" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>24</v>
+      <c r="K32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>30.8</v>
+      </c>
       <c r="D33" s="2">
-        <v>27</v>
+        <v>27.8</v>
       </c>
       <c r="E33" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="G33" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5</v>
+      </c>
       <c r="I33" s="2">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>23.8</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="E34" s="2">
-        <v>86</v>
-      </c>
-      <c r="F34" s="2">
-        <v>6.3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
       <c r="I34" s="2">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="J34" s="2">
         <v>2</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>24</v>
+      <c r="K34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>29.9</v>
+      </c>
       <c r="D35" s="2">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2">
-        <v>4.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5</v>
+      </c>
       <c r="I35" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="J35" s="2">
         <v>2</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>24</v>
+      <c r="K35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B36" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>29.5</v>
+      </c>
       <c r="D36" s="2">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="E36" s="2">
         <v>85</v>
       </c>
-      <c r="F36" s="2">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>5</v>
+      </c>
       <c r="I36" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
         <v>23.4</v>
@@ -1660,10 +1615,10 @@
         <v>31.5</v>
       </c>
       <c r="D37" s="2">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="E37" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
@@ -1686,7 +1641,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
         <v>23.2</v>
@@ -1721,7 +1676,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2">
         <v>22.9</v>
@@ -1730,10 +1685,10 @@
         <v>31.6</v>
       </c>
       <c r="D39" s="2">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="E39" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2">
         <v>3.4</v>
@@ -1756,72 +1711,1156 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77E2CD0-43CA-4A9C-9297-EDB43144978E}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>180</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>170</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>230</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>210</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60.1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>130</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>87</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>140</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>130</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>230</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>220</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>220</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>270</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>96</v>
+      </c>
+      <c r="F15" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>190</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>250</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>180</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8888</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>280</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D19" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>80</v>
+      </c>
+      <c r="F19" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H19" s="2">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2">
+        <v>260</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D20" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>81</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2">
+        <v>190</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D21" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>81</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>93</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>150</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>160</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>170</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>83</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>200</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>80</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>160</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>210</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="2">
+        <v>240</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="E29" s="2">
+        <v>83</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2">
+        <v>180</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>190</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="C31" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>86</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>150</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>